--- a/src/cikkek.xlsx
+++ b/src/cikkek.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\designlab\zylag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2D0505-DFC3-4F6C-BB73-A850750C13DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972AC102-4623-4BC5-A31E-014E7DB5F0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5535" yWindow="3345" windowWidth="21600" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="cikkek" sheetId="1" r:id="rId1"/>
+    <sheet name="vélemények" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
   <si>
     <t>Projekt</t>
   </si>
@@ -54,9 +55,6 @@
     <t>Státusz</t>
   </si>
   <si>
-    <t>Nyilvános</t>
-  </si>
-  <si>
     <t>stophpv</t>
   </si>
   <si>
@@ -66,15 +64,9 @@
     <t>saarylilla.hu</t>
   </si>
   <si>
-    <t>web, branding, logo, frontend</t>
-  </si>
-  <si>
     <t>web, uiux, branding, frontend, case study</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>Biobarát</t>
   </si>
   <si>
@@ -96,9 +88,6 @@
     <t>Logo</t>
   </si>
   <si>
-    <t>free resource címke?</t>
-  </si>
-  <si>
     <t>SZIF</t>
   </si>
   <si>
@@ -108,9 +97,6 @@
     <t>Mézsörök</t>
   </si>
   <si>
-    <t>csomagolás címke!!!</t>
-  </si>
-  <si>
     <t>Kreatur</t>
   </si>
   <si>
@@ -157,6 +143,78 @@
   </si>
   <si>
     <t>web, uiux</t>
+  </si>
+  <si>
+    <t>web, branding, logo, frontend, case study</t>
+  </si>
+  <si>
+    <t>Név</t>
+  </si>
+  <si>
+    <t>Viktor Fazekas</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Paul Oomen</t>
+  </si>
+  <si>
+    <t>Head of Research &amp; Development — WRI</t>
+  </si>
+  <si>
+    <t>WRI</t>
+  </si>
+  <si>
+    <t>Lilla Saáry</t>
+  </si>
+  <si>
+    <t>Tamás Varga</t>
+  </si>
+  <si>
+    <t>kreatur.hu</t>
+  </si>
+  <si>
+    <t>Jakub Gajdamowicz</t>
+  </si>
+  <si>
+    <t>COO &amp; Co-founder</t>
+  </si>
+  <si>
+    <t>uniqly.io</t>
+  </si>
+  <si>
+    <t>Nina Willemse-Meulendijk</t>
+  </si>
+  <si>
+    <t>Founder &amp; Owner</t>
+  </si>
+  <si>
+    <t>MeGreen</t>
+  </si>
+  <si>
+    <t>Ferenc Virág</t>
+  </si>
+  <si>
+    <t>Marketing Specialist</t>
+  </si>
+  <si>
+    <t>Sight</t>
+  </si>
+  <si>
+    <t>László Bottyán</t>
+  </si>
+  <si>
+    <t>Szöveg</t>
+  </si>
+  <si>
+    <t>Tuti</t>
+  </si>
+  <si>
+    <t>Nemhiszem</t>
+  </si>
+  <si>
+    <t>Talán</t>
   </si>
 </sst>
 </file>
@@ -188,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -232,17 +296,83 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00B050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -521,7 +651,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,18 +678,18 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -570,7 +700,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -578,203 +708,320 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
+      <c r="A5" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>15</v>
+      <c r="A7" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
+      <c r="A8" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
+      <c r="A9" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
+      <c r="A12" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
+      <c r="D13" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
+      <c r="A14" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
       </c>
-      <c r="E18" t="s">
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
+    <sortCondition sortBy="cellColor" ref="A11:A22" dxfId="1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EA60CF-272A-40E8-A79B-A8A4191DFE86}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="D22" t="s">
-        <v>43</v>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/cikkek.xlsx
+++ b/src/cikkek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\designlab\zylag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972AC102-4623-4BC5-A31E-014E7DB5F0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF46FF8-87DA-4F8D-8FC9-3BBE1C127894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5535" yWindow="3345" windowWidth="21600" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cikkek" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
   <si>
     <t>Projekt</t>
   </si>
@@ -215,13 +215,16 @@
   </si>
   <si>
     <t>Talán</t>
+  </si>
+  <si>
+    <t>Kész</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,8 +248,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,6 +295,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -296,78 +314,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -648,21 +612,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
@@ -670,214 +636,220 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B14" t="s">
         <v>29</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>14</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
@@ -885,18 +857,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>61</v>
       </c>
@@ -905,8 +877,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E22">
-    <sortCondition sortBy="cellColor" ref="A11:A22" dxfId="1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F22">
+    <sortCondition sortBy="cellColor" ref="A11:A22" dxfId="0"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -917,7 +889,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A5" sqref="A5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,13 +915,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -965,24 +937,24 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -998,13 +970,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="7" t="s">
         <v>54</v>
       </c>
     </row>

--- a/src/cikkek.xlsx
+++ b/src/cikkek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\designlab\zylag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF46FF8-87DA-4F8D-8FC9-3BBE1C127894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770CF74A-B8E7-4D6E-A5C0-469F13904311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>Projekt</t>
   </si>
@@ -615,7 +615,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,6 +687,9 @@
       </c>
       <c r="B5" t="s">
         <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>

--- a/src/cikkek.xlsx
+++ b/src/cikkek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\designlab\zylag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770CF74A-B8E7-4D6E-A5C0-469F13904311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE76A016-2198-4B50-B476-17728EED6242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cikkek" sheetId="1" r:id="rId1"/>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EA60CF-272A-40E8-A79B-A8A4191DFE86}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/cikkek.xlsx
+++ b/src/cikkek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\designlab\zylag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE76A016-2198-4B50-B476-17728EED6242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C42E5BB-4915-4554-BEA1-0F235D619E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cikkek" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
   <si>
     <t>Projekt</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>Kész</t>
+  </si>
+  <si>
+    <t>web, branding, logo, uiux, case study</t>
   </si>
 </sst>
 </file>
@@ -614,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +695,7 @@
         <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -714,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -756,6 +759,9 @@
       </c>
       <c r="B11" t="s">
         <v>35</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="E11" t="s">
         <v>36</v>
@@ -891,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5EA60CF-272A-40E8-A79B-A8A4191DFE86}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/cikkek.xlsx
+++ b/src/cikkek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\designlab\zylag\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C42E5BB-4915-4554-BEA1-0F235D619E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9EC080-BB1C-4E90-804F-E1A3F3589410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="65">
   <si>
     <t>Projekt</t>
   </si>
@@ -618,7 +618,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -715,6 +715,9 @@
       </c>
       <c r="B7" t="s">
         <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
       </c>
       <c r="E7" t="s">
         <v>39</v>
